--- a/datasets/Number of monthly twitter active users.xlsx
+++ b/datasets/Number of monthly twitter active users.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Overview" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="MAU" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Dataset" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>URL:</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/282087/number-of-monthly-active-twitter-users/</t>
+  </si>
+  <si>
+    <t>Selected Company Metrics and Financials:</t>
   </si>
   <si>
     <t>Dicionário</t>
@@ -199,6 +202,21 @@
   <si>
     <t>Q1(19)</t>
   </si>
+  <si>
+    <t>Q2(19)</t>
+  </si>
+  <si>
+    <t>Q3(19)</t>
+  </si>
+  <si>
+    <t>Q4(19)</t>
+  </si>
+  <si>
+    <t>Q1(20)</t>
+  </si>
+  <si>
+    <t>Q2(20)</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -221,7 +239,6 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -230,19 +247,31 @@
       <b/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -273,26 +302,29 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -515,7 +547,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.14"/>
+    <col customWidth="1" min="1" max="1" width="39.43"/>
     <col customWidth="1" min="2" max="2" width="39.0"/>
     <col customWidth="1" min="3" max="3" width="136.29"/>
   </cols>
@@ -537,10 +569,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -548,57 +580,65 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -606,9 +646,10 @@
     <hyperlink r:id="rId1" ref="B1"/>
     <hyperlink r:id="rId2" ref="B4"/>
     <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="C10"/>
+    <hyperlink r:id="rId4" ref="B6"/>
+    <hyperlink r:id="rId5" ref="C11"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -627,421 +668,506 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>2010.0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
         <v>30.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2010.0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
         <v>40.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>2010.0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
         <v>49.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>2010.0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
         <v>54.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>2011.0</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
         <v>68.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>2011.0</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
         <v>85.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>2011.0</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
         <v>101.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>2011.0</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
         <v>117.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>2012.0</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <v>138.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>2012.0</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
         <v>151.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>2012.0</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
         <v>167.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>2012.0</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
         <v>185.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>2013.0</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
         <v>204.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>2013.0</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
         <v>218.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>2013.0</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
         <v>231.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>2013.0</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
         <v>241.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>2014.0</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
         <v>255.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>2014.0</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
         <v>271.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>2014.0</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
         <v>284.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>2014.0</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1">
         <v>288.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>2015.0</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
         <v>302.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>2015.0</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
         <v>304.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>2015.0</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1">
         <v>307.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>2015.0</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
         <v>305.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>2016.0</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1">
         <v>310.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1">
         <v>313.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1">
         <v>317.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="12">
         <v>2016.0</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1">
         <v>318.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="12">
         <v>2017.0</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
         <v>327.0</v>
       </c>
+      <c r="D30" s="1">
+        <v>109.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="12">
         <v>2017.0</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1">
         <v>326.0</v>
       </c>
+      <c r="D31" s="1">
+        <v>110.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="12">
         <v>2017.0</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1">
         <v>330.0</v>
       </c>
+      <c r="D32" s="1">
+        <v>114.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="12">
         <v>2017.0</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1">
         <v>330.0</v>
       </c>
+      <c r="D33" s="1">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1">
         <v>336.0</v>
       </c>
+      <c r="D34" s="1">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1">
         <v>335.0</v>
       </c>
+      <c r="D35" s="1">
+        <v>122.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
         <v>326.0</v>
       </c>
+      <c r="D36" s="1">
+        <v>124.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="12">
         <v>2018.0</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1">
         <v>321.0</v>
       </c>
+      <c r="D37" s="1">
+        <v>126.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="12">
         <v>2019.0</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1">
         <v>330.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>134.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>2020.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>2020.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1">
+        <v>166.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1">
+        <v>186.0</v>
       </c>
     </row>
   </sheetData>
